--- a/dataset/gpt_preds_t0.6_validated.xlsx
+++ b/dataset/gpt_preds_t0.6_validated.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>1.00000011920929</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>1.00000011920929</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>1.00000011920929</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.8919841051101685</v>
+        <v>0.75682532787323</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8732767105102539</v>
+        <v>0.7404976487159729</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8825312852859497</v>
+        <v>0.7485724091529846</v>
       </c>
       <c r="H3" t="n">
         <v>0.4285714285714285</v>
@@ -596,13 +596,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.7329710721969604</v>
+        <v>0.4978529512882233</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7665846347808838</v>
+        <v>0.5600713491439819</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7494010925292969</v>
+        <v>0.5271325707435608</v>
       </c>
       <c r="H4" t="n">
         <v>0.25</v>
@@ -639,13 +639,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>1.00000011920929</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>1.00000011920929</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>1.00000011920929</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.7704976797103882</v>
+        <v>0.5584052801132202</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7653099298477173</v>
+        <v>0.5950280427932739</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7678950428962708</v>
+        <v>0.5761352777481079</v>
       </c>
       <c r="H6" t="n">
         <v>0.125</v>
@@ -725,13 +725,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.736967146396637</v>
+        <v>0.4427545368671417</v>
       </c>
       <c r="F7" t="n">
-        <v>0.738602876663208</v>
+        <v>0.4870263338088989</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7377841472625732</v>
+        <v>0.4638364613056183</v>
       </c>
       <c r="H7" t="n">
         <v>0.1428571428571428</v>
@@ -811,13 +811,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.8760780096054077</v>
+        <v>0.7389515042304993</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8956984281539917</v>
+        <v>0.7518517971038818</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8857796192169189</v>
+        <v>0.7453458309173584</v>
       </c>
       <c r="H9" t="n">
         <v>0.4444444444444444</v>
@@ -897,13 +897,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.8639947772026062</v>
+        <v>0.7872543334960938</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8816015720367432</v>
+        <v>0.8328989744186401</v>
       </c>
       <c r="G11" t="n">
-        <v>0.872709333896637</v>
+        <v>0.80943363904953</v>
       </c>
       <c r="H11" t="n">
         <v>0.5</v>
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.8708009123802185</v>
+        <v>0.6493551135063171</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9394837617874146</v>
+        <v>0.8049705028533936</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9038394093513489</v>
+        <v>0.7188372015953064</v>
       </c>
       <c r="H12" t="n">
         <v>0.75</v>
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.9404415488243103</v>
+        <v>0.8532376289367676</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9606221914291382</v>
+        <v>0.8869210481643677</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9504247903823853</v>
+        <v>0.8697533011436462</v>
       </c>
       <c r="H13" t="n">
         <v>0.6</v>
@@ -1026,13 +1026,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.8078713417053223</v>
+        <v>0.5924192070960999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8080551624298096</v>
+        <v>0.6073690056800842</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8079632520675659</v>
+        <v>0.5998009443283081</v>
       </c>
       <c r="H14" t="n">
         <v>0.3</v>
@@ -1155,13 +1155,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.8409923911094666</v>
+        <v>0.6919375658035278</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7821130752563477</v>
+        <v>0.630226731300354</v>
       </c>
       <c r="G17" t="n">
-        <v>0.810484766960144</v>
+        <v>0.6596420407295227</v>
       </c>
       <c r="H17" t="n">
         <v>0.3333333333333333</v>
@@ -1198,13 +1198,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.8094236850738525</v>
+        <v>0.5878845453262329</v>
       </c>
       <c r="F18" t="n">
-        <v>0.81192946434021</v>
+        <v>0.5842889547348022</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8106746077537537</v>
+        <v>0.5860812067985535</v>
       </c>
       <c r="H18" t="n">
         <v>0.375</v>
@@ -1241,13 +1241,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1284,13 +1284,13 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.886101245880127</v>
+        <v>0.8080757856369019</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8835197687149048</v>
+        <v>0.8115696907043457</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8848086595535278</v>
+        <v>0.8098189830780029</v>
       </c>
       <c r="H20" t="n">
         <v>0.5</v>
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.7664726376533508</v>
+        <v>0.6100800633430481</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8065768480300903</v>
+        <v>0.6346835494041443</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7860134840011597</v>
+        <v>0.6221386194229126</v>
       </c>
       <c r="H21" t="n">
         <v>0.4444444444444444</v>
@@ -1413,13 +1413,13 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.9489020705223083</v>
+        <v>0.9402529001235962</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8247300386428833</v>
+        <v>0.7456179857254028</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8824694752693176</v>
+        <v>0.8317000865936279</v>
       </c>
       <c r="H23" t="n">
         <v>0.5</v>
@@ -1456,13 +1456,13 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.7504991888999939</v>
+        <v>0.5788548588752747</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7848423719406128</v>
+        <v>0.6914362907409668</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7672867178916931</v>
+        <v>0.6301567554473877</v>
       </c>
       <c r="H24" t="n">
         <v>0.4285714285714285</v>
@@ -1499,13 +1499,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.9507514238357544</v>
+        <v>0.9349086284637451</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9388021230697632</v>
+        <v>0.9349086284637451</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9447389841079712</v>
+        <v>0.9349086284637451</v>
       </c>
       <c r="H25" t="n">
         <v>0.875</v>
@@ -1542,13 +1542,13 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.8258549571037292</v>
+        <v>0.6567846536636353</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7347939014434814</v>
+        <v>0.5205783843994141</v>
       </c>
       <c r="G26" t="n">
-        <v>0.777667760848999</v>
+        <v>0.5808027982711792</v>
       </c>
       <c r="H26" t="n">
         <v>0.2222222222222222</v>
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.9114413261413574</v>
+        <v>0.8261550664901733</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9011939764022827</v>
+        <v>0.8470709323883057</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9062886834144592</v>
+        <v>0.8364822864532471</v>
       </c>
       <c r="H27" t="n">
         <v>0.7142857142857143</v>
@@ -1671,13 +1671,13 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.9123080968856812</v>
+        <v>0.851966381072998</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8842054605484009</v>
+        <v>0.7966518402099609</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8980369567871094</v>
+        <v>0.8233811855316162</v>
       </c>
       <c r="H29" t="n">
         <v>0.7142857142857143</v>
@@ -1714,13 +1714,13 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.744519829750061</v>
+        <v>0.4914199709892273</v>
       </c>
       <c r="F30" t="n">
-        <v>0.756260097026825</v>
+        <v>0.5422304272651672</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7503440380096436</v>
+        <v>0.5155763626098633</v>
       </c>
       <c r="H30" t="n">
         <v>0.375</v>
@@ -1800,13 +1800,13 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>1.00000011920929</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>1.00000011920929</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>1.00000011920929</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.9199566245079041</v>
+        <v>0.8478922843933105</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9304945468902588</v>
+        <v>0.8683894276618958</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9251955151557922</v>
+        <v>0.8580185174942017</v>
       </c>
       <c r="H33" t="n">
         <v>0.5</v>
@@ -1862,7 +1862,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>CORRECT</t>
+          <t>WRONG</t>
         </is>
       </c>
     </row>
@@ -1886,13 +1886,13 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1929,13 +1929,13 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -2015,13 +2015,13 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.6861419677734375</v>
+        <v>0.4570373892784119</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7447174191474915</v>
+        <v>0.5447064638137817</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7142307162284851</v>
+        <v>0.4970357120037079</v>
       </c>
       <c r="H37" t="n">
         <v>0.2857142857142857</v>
@@ -2058,13 +2058,13 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.965278148651123</v>
+        <v>0.9001694917678833</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9170200824737549</v>
+        <v>0.8336998224258423</v>
       </c>
       <c r="G38" t="n">
-        <v>0.94053053855896</v>
+        <v>0.8656606078147888</v>
       </c>
       <c r="H38" t="n">
         <v>0.6</v>
@@ -2144,13 +2144,13 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.8230211734771729</v>
+        <v>0.6724916696548462</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8407760858535767</v>
+        <v>0.6961629390716553</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8318039178848267</v>
+        <v>0.684122622013092</v>
       </c>
       <c r="H40" t="n">
         <v>0.1666666666666667</v>
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.9172275066375732</v>
+        <v>0.8109645843505859</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9096647500991821</v>
+        <v>0.8109645843505859</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9134305119514465</v>
+        <v>0.8109646439552307</v>
       </c>
       <c r="H41" t="n">
         <v>0.5</v>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>CORRECT</t>
+          <t>WRONG</t>
         </is>
       </c>
     </row>
@@ -2273,13 +2273,13 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.7428083419799805</v>
+        <v>0.5016897320747375</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7866870164871216</v>
+        <v>0.5436521768569946</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7641182541847229</v>
+        <v>0.5218287110328674</v>
       </c>
       <c r="H43" t="n">
         <v>0.2857142857142857</v>
@@ -2316,13 +2316,13 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.7893513441085815</v>
+        <v>0.6304823756217957</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8048659563064575</v>
+        <v>0.6472762823104858</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7970331907272339</v>
+        <v>0.6387689709663391</v>
       </c>
       <c r="H44" t="n">
         <v>0.4</v>
@@ -2359,13 +2359,13 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.8351273536682129</v>
+        <v>0.7712015509605408</v>
       </c>
       <c r="F45" t="n">
-        <v>0.912497878074646</v>
+        <v>0.9279840588569641</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8720999360084534</v>
+        <v>0.8423596620559692</v>
       </c>
       <c r="H45" t="n">
         <v>0.8</v>
@@ -2402,13 +2402,13 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.7654399871826172</v>
+        <v>0.5596722364425659</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7907435297966003</v>
+        <v>0.6066511869430542</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7778859734535217</v>
+        <v>0.5822155475616455</v>
       </c>
       <c r="H46" t="n">
         <v>0.5714285714285714</v>
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.7280405759811401</v>
+        <v>0.5255148410797119</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7746798396110535</v>
+        <v>0.6681727170944214</v>
       </c>
       <c r="G48" t="n">
-        <v>0.7506364583969116</v>
+        <v>0.5883192420005798</v>
       </c>
       <c r="H48" t="n">
         <v>0.2</v>
@@ -2531,13 +2531,13 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.8715537786483765</v>
+        <v>0.7454837560653687</v>
       </c>
       <c r="F49" t="n">
-        <v>0.860596239566803</v>
+        <v>0.721682071685791</v>
       </c>
       <c r="G49" t="n">
-        <v>0.8660403490066528</v>
+        <v>0.7333898544311523</v>
       </c>
       <c r="H49" t="n">
         <v>0.3333333333333333</v>
@@ -2574,13 +2574,13 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.7680425047874451</v>
+        <v>0.6276364326477051</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7721351981163025</v>
+        <v>0.598631739616394</v>
       </c>
       <c r="G50" t="n">
-        <v>0.7700834274291992</v>
+        <v>0.6127910614013672</v>
       </c>
       <c r="H50" t="n">
         <v>0.25</v>
@@ -2617,13 +2617,13 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.8718172311782837</v>
+        <v>0.78767991065979</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8231008052825928</v>
+        <v>0.7883908748626709</v>
       </c>
       <c r="G51" t="n">
-        <v>0.8467589020729065</v>
+        <v>0.7880352139472961</v>
       </c>
       <c r="H51" t="n">
         <v>0.7142857142857143</v>
@@ -2660,13 +2660,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.9349480867385864</v>
+        <v>0.8645686507225037</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9732168912887573</v>
+        <v>0.931836724281311</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9536987543106079</v>
+        <v>0.8969432711601257</v>
       </c>
       <c r="H52" t="n">
         <v>0.8333333333333334</v>
@@ -2703,13 +2703,13 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.8384801149368286</v>
+        <v>0.7908024191856384</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9146307110786438</v>
+        <v>0.9289392828941345</v>
       </c>
       <c r="G53" t="n">
-        <v>0.8749014735221863</v>
+        <v>0.8543230295181274</v>
       </c>
       <c r="H53" t="n">
         <v>0.8</v>
@@ -2746,13 +2746,13 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.8377463817596436</v>
+        <v>0.6504641771316528</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8944087028503418</v>
+        <v>0.7216939926147461</v>
       </c>
       <c r="G54" t="n">
-        <v>0.8651508092880249</v>
+        <v>0.6842302680015564</v>
       </c>
       <c r="H54" t="n">
         <v>0.4</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.8635208606719971</v>
+        <v>0.7547467947006226</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7820395827293396</v>
+        <v>0.620155930519104</v>
       </c>
       <c r="G55" t="n">
-        <v>0.8207629323005676</v>
+        <v>0.6808637380599976</v>
       </c>
       <c r="H55" t="n">
         <v>0.1428571428571428</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.9238933920860291</v>
+        <v>0.7863880395889282</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9238933920860291</v>
+        <v>0.8349984288215637</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9238933920860291</v>
+        <v>0.8099645376205444</v>
       </c>
       <c r="H56" t="n">
         <v>0.6</v>
@@ -2875,13 +2875,13 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>1.00000011920929</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>1.00000011920929</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>1.00000011920929</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
@@ -2961,13 +2961,13 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.907103419303894</v>
+        <v>0.7617844939231873</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9202606678009033</v>
+        <v>0.7963079810142517</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9136346578598022</v>
+        <v>0.7786637544631958</v>
       </c>
       <c r="H59" t="n">
         <v>0.4285714285714285</v>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>CORRECT</t>
+          <t>WRONG</t>
         </is>
       </c>
     </row>
@@ -3004,13 +3004,13 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
@@ -3047,13 +3047,13 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.8180923461914062</v>
+        <v>0.640072226524353</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7962234020233154</v>
+        <v>0.5881134271621704</v>
       </c>
       <c r="G61" t="n">
-        <v>0.807009756565094</v>
+        <v>0.6129937767982483</v>
       </c>
       <c r="H61" t="n">
         <v>0.2857142857142857</v>
@@ -3090,13 +3090,13 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>1.00000011920929</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>1.00000011920929</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>1.00000011920929</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -3133,13 +3133,13 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.9117533564567566</v>
+        <v>0.8610355257987976</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9516710042953491</v>
+        <v>0.9434313774108887</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9312846660614014</v>
+        <v>0.9003522396087646</v>
       </c>
       <c r="H63" t="n">
         <v>0.8</v>
@@ -3219,13 +3219,13 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.9999998807907104</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9999998807907104</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9999998807907104</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>1</v>
@@ -3262,13 +3262,13 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.7577517628669739</v>
+        <v>0.5210770964622498</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8246585130691528</v>
+        <v>0.6467384099960327</v>
       </c>
       <c r="G66" t="n">
-        <v>0.7897906899452209</v>
+        <v>0.5771470069885254</v>
       </c>
       <c r="H66" t="n">
         <v>0.4</v>
@@ -3305,13 +3305,13 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>1.000000238418579</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>1.000000238418579</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>1.000000238418579</v>
       </c>
       <c r="H67" t="n">
         <v>1</v>
@@ -3348,13 +3348,13 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.9753019213676453</v>
+        <v>0.9473035931587219</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9951131343841553</v>
+        <v>0.9743640422821045</v>
       </c>
       <c r="G68" t="n">
-        <v>0.9851078987121582</v>
+        <v>0.9606433510780334</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.8381195664405823</v>
+        <v>0.6840470433235168</v>
       </c>
       <c r="F69" t="n">
-        <v>0.911149263381958</v>
+        <v>0.8239434361457825</v>
       </c>
       <c r="G69" t="n">
-        <v>0.8731099963188171</v>
+        <v>0.7475062012672424</v>
       </c>
       <c r="H69" t="n">
         <v>0.75</v>
@@ -3434,13 +3434,13 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.8016639947891235</v>
+        <v>0.6550742983818054</v>
       </c>
       <c r="F70" t="n">
-        <v>0.7944259643554688</v>
+        <v>0.6490589380264282</v>
       </c>
       <c r="G70" t="n">
-        <v>0.7980285882949829</v>
+        <v>0.6520527601242065</v>
       </c>
       <c r="H70" t="n">
         <v>0.4285714285714285</v>
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="H71" t="n">
         <v>1</v>
@@ -3563,13 +3563,13 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="H73" t="n">
         <v>1</v>
@@ -3606,13 +3606,13 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.9960260391235352</v>
+        <v>0.9673136472702026</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9960260391235352</v>
+        <v>0.9855819940567017</v>
       </c>
       <c r="G74" t="n">
-        <v>0.9960260391235352</v>
+        <v>0.976362407207489</v>
       </c>
       <c r="H74" t="n">
         <v>0.8</v>
@@ -3649,13 +3649,13 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.6479642391204834</v>
+        <v>0.3721895217895508</v>
       </c>
       <c r="F75" t="n">
-        <v>0.7339694499969482</v>
+        <v>0.3647157847881317</v>
       </c>
       <c r="G75" t="n">
-        <v>0.6882905960083008</v>
+        <v>0.3684147298336029</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3735,13 +3735,13 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.73255854845047</v>
+        <v>0.503508448600769</v>
       </c>
       <c r="F77" t="n">
-        <v>0.797292947769165</v>
+        <v>0.6074651479721069</v>
       </c>
       <c r="G77" t="n">
-        <v>0.763556182384491</v>
+        <v>0.5506230592727661</v>
       </c>
       <c r="H77" t="n">
         <v>0.3333333333333333</v>
@@ -3778,13 +3778,13 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.6832197904586792</v>
+        <v>0.3765679001808167</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7026747465133667</v>
+        <v>0.4412389099597931</v>
       </c>
       <c r="G78" t="n">
-        <v>0.6928107142448425</v>
+        <v>0.4063463509082794</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3821,13 +3821,13 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.6547332406044006</v>
+        <v>0.4547942280769348</v>
       </c>
       <c r="F79" t="n">
-        <v>0.657456636428833</v>
+        <v>0.4620457887649536</v>
       </c>
       <c r="G79" t="n">
-        <v>0.6560921669006348</v>
+        <v>0.4583913385868073</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3864,13 +3864,13 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.7355889081954956</v>
+        <v>0.4562883973121643</v>
       </c>
       <c r="F80" t="n">
-        <v>0.7738949060440063</v>
+        <v>0.4979286789894104</v>
       </c>
       <c r="G80" t="n">
-        <v>0.7542558908462524</v>
+        <v>0.4761999845504761</v>
       </c>
       <c r="H80" t="n">
         <v>0.1428571428571428</v>
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.6899440884590149</v>
+        <v>0.4122650921344757</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7320493459701538</v>
+        <v>0.4368392825126648</v>
       </c>
       <c r="G81" t="n">
-        <v>0.7103733420372009</v>
+        <v>0.4241965711116791</v>
       </c>
       <c r="H81" t="n">
         <v>0.25</v>
@@ -3950,13 +3950,13 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.6627688407897949</v>
+        <v>0.4430384635925293</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5522141456604004</v>
+        <v>0.3042225241661072</v>
       </c>
       <c r="G82" t="n">
-        <v>0.6024616956710815</v>
+        <v>0.3607368469238281</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3993,13 +3993,13 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.7780975103378296</v>
+        <v>0.4711652100086212</v>
       </c>
       <c r="F83" t="n">
-        <v>0.627345860004425</v>
+        <v>0.2856888771057129</v>
       </c>
       <c r="G83" t="n">
-        <v>0.6946366429328918</v>
+        <v>0.3557004332542419</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.7488293647766113</v>
+        <v>0.4095122516155243</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7907251119613647</v>
+        <v>0.4491676390171051</v>
       </c>
       <c r="G84" t="n">
-        <v>0.769207239151001</v>
+        <v>0.4284242689609528</v>
       </c>
       <c r="H84" t="n">
         <v>0.2857142857142857</v>
@@ -4079,13 +4079,13 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>1.000000238418579</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>1.000000238418579</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>1.000000238418579</v>
       </c>
       <c r="H85" t="n">
         <v>1</v>
@@ -4122,13 +4122,13 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.8444952964782715</v>
+        <v>0.7097761631011963</v>
       </c>
       <c r="F86" t="n">
-        <v>0.8574044108390808</v>
+        <v>0.7188899517059326</v>
       </c>
       <c r="G86" t="n">
-        <v>0.8509008884429932</v>
+        <v>0.7143039703369141</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4165,13 +4165,13 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.7209373712539673</v>
+        <v>0.4924632012844086</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8070864677429199</v>
+        <v>0.5889527201652527</v>
       </c>
       <c r="G87" t="n">
-        <v>0.7615834474563599</v>
+        <v>0.5364033579826355</v>
       </c>
       <c r="H87" t="n">
         <v>0.6</v>
@@ -4208,13 +4208,13 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.8238573670387268</v>
+        <v>0.6385253071784973</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9508301019668579</v>
+        <v>0.9120510220527649</v>
       </c>
       <c r="G88" t="n">
-        <v>0.8828014731407166</v>
+        <v>0.7511628270149231</v>
       </c>
       <c r="H88" t="n">
         <v>0.6666666666666666</v>
@@ -4251,13 +4251,13 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.7629305124282837</v>
+        <v>0.4912276566028595</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8858389854431152</v>
+        <v>0.6838937401771545</v>
       </c>
       <c r="G89" t="n">
-        <v>0.8198035955429077</v>
+        <v>0.5717664957046509</v>
       </c>
       <c r="H89" t="n">
         <v>0.6666666666666666</v>
@@ -4294,13 +4294,13 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.7826920747756958</v>
+        <v>0.5618263483047485</v>
       </c>
       <c r="F90" t="n">
-        <v>0.7811883687973022</v>
+        <v>0.59587162733078</v>
       </c>
       <c r="G90" t="n">
-        <v>0.7819395065307617</v>
+        <v>0.5783483982086182</v>
       </c>
       <c r="H90" t="n">
         <v>0.1666666666666667</v>
@@ -4337,13 +4337,13 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.8464156985282898</v>
+        <v>0.7069417834281921</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8728381991386414</v>
+        <v>0.7252391576766968</v>
       </c>
       <c r="G91" t="n">
-        <v>0.8594239354133606</v>
+        <v>0.7159736156463623</v>
       </c>
       <c r="H91" t="n">
         <v>0.4285714285714285</v>
@@ -4380,13 +4380,13 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.575131356716156</v>
+        <v>0.448775053024292</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5265993475914001</v>
+        <v>0.2286967933177948</v>
       </c>
       <c r="G92" t="n">
-        <v>0.549796462059021</v>
+        <v>0.3029894530773163</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4423,13 +4423,13 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.8519629240036011</v>
+        <v>0.7773614525794983</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9374232292175293</v>
+        <v>0.8784929513931274</v>
       </c>
       <c r="G93" t="n">
-        <v>0.8926523327827454</v>
+        <v>0.8248388767242432</v>
       </c>
       <c r="H93" t="n">
         <v>0.8</v>
@@ -4509,13 +4509,13 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.7013258934020996</v>
+        <v>0.341000497341156</v>
       </c>
       <c r="F95" t="n">
-        <v>0.731422483921051</v>
+        <v>0.381801575422287</v>
       </c>
       <c r="G95" t="n">
-        <v>0.716058075428009</v>
+        <v>0.3602494895458221</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4552,13 +4552,13 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
@@ -4595,13 +4595,13 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.9960260391235352</v>
+        <v>0.9673136472702026</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9960260391235352</v>
+        <v>0.9855819940567017</v>
       </c>
       <c r="G97" t="n">
-        <v>0.9960260391235352</v>
+        <v>0.976362407207489</v>
       </c>
       <c r="H97" t="n">
         <v>0.8</v>
@@ -4638,13 +4638,13 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.6479466557502747</v>
+        <v>0.3774942755699158</v>
       </c>
       <c r="F98" t="n">
-        <v>0.7369899749755859</v>
+        <v>0.4070421457290649</v>
       </c>
       <c r="G98" t="n">
-        <v>0.6896058320999146</v>
+        <v>0.3917117714881897</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
